--- a/sample/NRC TALLY LIST WITH ESTIMATE MANHOUR (27 Jun 2023).xlsx
+++ b/sample/NRC TALLY LIST WITH ESTIMATE MANHOUR (27 Jun 2023).xlsx
@@ -7874,8 +7874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P697"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H71" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
